--- a/Forms/pfm03.xlsx
+++ b/Forms/pfm03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8502A7-B460-45D2-8214-29FCE89FDE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FB182-FA9E-449F-8129-64D8BB89CB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="711" activeTab="4" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="711" activeTab="5" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Overview_forecast" sheetId="3" r:id="rId3"/>
     <sheet name="Production" sheetId="4" r:id="rId4"/>
     <sheet name="Revenue" sheetId="5" r:id="rId5"/>
-    <sheet name="Cashin" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Cashin" sheetId="6" r:id="rId6"/>
     <sheet name="Uninvoiced_workdone" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="Account_receivables" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t xml:space="preserve">Code: </t>
   </si>
@@ -272,6 +272,42 @@
   </si>
   <si>
     <t>PHẢI THU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advance payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deduction of advance payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tạm ứng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khấu trừ tạm ứng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh toán </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advance payment accumulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deduction of advance payment accumulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Payment accumulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tạm ứng lũy kế</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khấu trừ tạm ứng lũy kế</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh toán lũy kế</t>
   </si>
 </sst>
 </file>
@@ -519,7 +555,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -609,6 +645,12 @@
     <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,17 +971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75BB5B-7DBA-4AEA-9530-2FEBECE0774D}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B36" sqref="B36"/>
+      <selection pane="topRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="26" customWidth="1"/>
@@ -1068,7 +1110,7 @@
       </c>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -1081,188 +1123,206 @@
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>19</v>
+      <c r="B15" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>20</v>
+      <c r="D15" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
+      <c r="B16" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>23</v>
+      <c r="B17" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>24</v>
+      <c r="D17" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="35"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="35">
-        <f>E16-E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="35">
-        <f>E17-E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
-      <c r="B21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="30"/>
+      <c r="B21" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
-        <v>15</v>
+      <c r="B22" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
-        <v>17</v>
+      <c r="B23" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>18</v>
+      <c r="D23" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="E24" s="35">
+        <f>E19-E18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E25" s="35">
+        <f>E20-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="35">
-        <f>E25-E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="35">
-        <f>E26-E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="35">
+        <f>E30-E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
@@ -1272,13 +1332,25 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,17 +1360,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1A13D-1B1B-47C9-A71B-22118127C773}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B34" sqref="B34"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="26" customWidth="1"/>
@@ -1427,7 +1499,7 @@
       </c>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -1440,173 +1512,199 @@
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>19</v>
+      <c r="B15" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>20</v>
+      <c r="D15" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
+      <c r="B16" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>23</v>
+      <c r="B17" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>24</v>
+      <c r="D17" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="35"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="35">
-        <f>E16-E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="35">
-        <f>E17-E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
-      <c r="B21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="30"/>
+      <c r="B21" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
-        <v>15</v>
+      <c r="B22" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
-        <v>17</v>
+      <c r="B23" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>18</v>
+      <c r="D23" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="E24" s="35">
+        <f>E19-E18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E25" s="35">
+        <f>E20-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="35">
-        <f>E25-E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="35">
-        <f>E26-E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="35">
+        <f>E30-E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
     <row r="33" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1619,13 +1717,13 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
-      <c r="D36" s="43"/>
-    </row>
-    <row r="37" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
@@ -1638,6 +1736,10 @@
     <row r="40" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,17 +1749,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A5FB98-A2C9-4D48-8768-EB4AF26CE35C}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="26" customWidth="1"/>
@@ -1786,7 +1888,7 @@
       </c>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -1799,169 +1901,198 @@
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>19</v>
+      <c r="B15" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>20</v>
+      <c r="D15" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
+      <c r="B16" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>23</v>
+      <c r="B17" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>24</v>
+      <c r="D17" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="35"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="35">
-        <f>E16-E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="35">
-        <f>E17-E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
-      <c r="B21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="30"/>
+      <c r="B21" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
-        <v>15</v>
+      <c r="B22" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
-        <v>17</v>
+      <c r="B23" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>18</v>
+      <c r="D23" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="E24" s="35">
+        <f>E19-E18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E25" s="35">
+        <f>E20-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="35">
-        <f>E25-E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="35">
-        <f>E26-E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+        <v>16</v>
+      </c>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="35">
+        <f>E30-E29</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1974,13 +2105,13 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="3:4" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
@@ -1993,10 +2124,6 @@
     <row r="39" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2425,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3904B107-2FDE-4592-BBDB-B1F2D7E06DCF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2838,24 +2965,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479F49D0-EC80-4E4A-9152-7A9D61551608}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H41" sqref="H41"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.5546875" style="26" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="26"/>
+    <col min="4" max="4" width="40.5546875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2863,7 +2990,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -2871,7 +2998,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +3006,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +3014,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2895,13 +3022,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +3038,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2920,22 +3047,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="48">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2944,44 +3058,9 @@
         <v>8</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="17">
-        <v>43556</v>
-      </c>
-      <c r="F9" s="17">
-        <v>43586</v>
-      </c>
-      <c r="G9" s="17">
-        <v>43617</v>
-      </c>
-      <c r="H9" s="17">
-        <v>43647</v>
-      </c>
-      <c r="I9" s="17">
-        <v>43678</v>
-      </c>
-      <c r="J9" s="17">
-        <v>43709</v>
-      </c>
-      <c r="K9" s="17">
-        <v>43739</v>
-      </c>
-      <c r="L9" s="17">
-        <v>43770</v>
-      </c>
-      <c r="M9" s="17">
-        <v>43800</v>
-      </c>
-      <c r="N9" s="17">
-        <v>43831</v>
-      </c>
-      <c r="O9" s="17">
-        <v>43862</v>
-      </c>
-      <c r="P9" s="17">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
@@ -2991,19 +3070,8 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -3013,19 +3081,8 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>41</v>
@@ -3035,19 +3092,8 @@
         <v>42</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-    </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>43</v>
@@ -3057,19 +3103,8 @@
         <v>44</v>
       </c>
       <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>45</v>
@@ -3079,19 +3114,8 @@
         <v>46</v>
       </c>
       <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>47</v>
@@ -3101,19 +3125,8 @@
         <v>48</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>49</v>
@@ -3123,19 +3136,8 @@
         <v>50</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>51</v>
@@ -3145,19 +3147,8 @@
         <v>52</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>53</v>
@@ -3170,52 +3161,8 @@
         <f>E14-E16</f>
         <v>0</v>
       </c>
-      <c r="F18" s="35">
-        <f t="shared" ref="F18:P19" si="0">F14-F16</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>55</v>
@@ -3228,52 +3175,8 @@
         <f>E15-E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
         <v>57</v>
@@ -3286,52 +3189,8 @@
         <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="46">
-        <f t="shared" ref="F20:P21" si="1">IF(ISERROR(F18/F14),0,F18/F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="32" t="s">
         <v>59</v>
@@ -3344,478 +3203,45 @@
         <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-    </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-    </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-    </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-    </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-    </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-    </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="35">
-        <f>E25-E27</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="35">
-        <f t="shared" ref="F29:P30" si="2">F25-F27</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="35">
-        <f>E26-E28</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="46">
-        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="46">
-        <f t="shared" ref="F31:P32" si="3">IF(ISERROR(F29/F25),0,F29/F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="46">
-        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="C40" s="9"/>
-      <c r="D40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-    </row>
-    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+    </row>
+    <row r="24" spans="1:5" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="C29" s="9"/>
+      <c r="D29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="3:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:P8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3905,20 +3331,20 @@
         <v>6</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="48">
+      <c r="E8" s="50">
         <v>2020</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -4890,20 +4316,20 @@
         <v>6</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="48">
+      <c r="E8" s="50">
         <v>2020</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">

--- a/Forms/pfm03.xlsx
+++ b/Forms/pfm03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D0DF5-5940-4468-8710-CE7CE8361DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72561AB-AD35-4A1A-9A6D-02515B0341EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="694" firstSheet="1" activeTab="6" xr2:uid="{FB711666-3FA6-4078-B961-28961897D9BF}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1483,6 +1483,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="33">
+        <f>E15-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,6 +1497,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="33">
+        <f>E16-E17</f>
         <v>0</v>
       </c>
     </row>
@@ -1635,7 +1637,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1824,6 +1826,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="33">
+        <f>E15-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -1837,6 +1840,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="33">
+        <f>E16-E17</f>
         <v>0</v>
       </c>
     </row>
@@ -1976,7 +1980,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2165,6 +2169,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="33">
+        <f>E15-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -2178,6 +2183,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="33">
+        <f>E16-E17</f>
         <v>0</v>
       </c>
     </row>
@@ -2309,10 +2315,10 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2501,6 +2507,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="33">
+        <f t="shared" ref="E18:E19" si="0">E14-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -2514,6 +2521,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,6 +2535,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="45">
+        <f t="shared" ref="E20:E21" si="1">IF(ISERROR(E18/E14),0,E18/E14)</f>
         <v>0</v>
       </c>
     </row>
@@ -2540,6 +2549,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2630,6 +2640,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="33">
+        <f t="shared" ref="E29:E30" si="2">E25-E27</f>
         <v>0</v>
       </c>
     </row>
@@ -2643,6 +2654,7 @@
         <v>70</v>
       </c>
       <c r="E30" s="33">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2656,6 +2668,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="45">
+        <f t="shared" ref="E31:E32" si="3">IF(ISERROR(E29/E25),0,E29/E25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2669,6 +2682,7 @@
         <v>74</v>
       </c>
       <c r="E32" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2736,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2911,6 +2925,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="33">
+        <f t="shared" ref="E18:E19" si="0">E14-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -2924,6 +2939,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2937,6 +2953,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="45">
+        <f t="shared" ref="E20:E21" si="1">IF(ISERROR(E18/E14),0,E18/E14)</f>
         <v>0</v>
       </c>
     </row>
@@ -2950,6 +2967,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,6 +3058,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="33">
+        <f t="shared" ref="E29:E30" si="2">E25-E27</f>
         <v>0</v>
       </c>
     </row>
@@ -3053,6 +3072,7 @@
         <v>70</v>
       </c>
       <c r="E30" s="33">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3066,6 +3086,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="45">
+        <f t="shared" ref="E31:E32" si="3">IF(ISERROR(E29/E25),0,E29/E25)</f>
         <v>0</v>
       </c>
     </row>
@@ -3079,6 +3100,7 @@
         <v>74</v>
       </c>
       <c r="E32" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3132,7 +3154,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3321,6 +3343,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="33">
+        <f t="shared" ref="E18:E19" si="0">E14-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -3334,6 +3357,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,6 +3371,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="45">
+        <f t="shared" ref="E20:E21" si="1">IF(ISERROR(E18/E14),0,E18/E14)</f>
         <v>0</v>
       </c>
     </row>
@@ -3360,6 +3385,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3410,10 +3436,10 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3532,7 +3558,9 @@
       <c r="D12" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="67"/>
@@ -3543,7 +3571,9 @@
       <c r="D13" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="66" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="62"/>
@@ -3555,6 +3585,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="33">
+        <f t="shared" ref="E14" si="0">E12-E13</f>
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3598,9 @@
       <c r="D15" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="66" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="62"/>
@@ -3578,7 +3611,9 @@
       <c r="D16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="75" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
@@ -3590,6 +3625,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="33">
+        <f t="shared" ref="E17" si="1">E15-E16</f>
         <v>0</v>
       </c>
     </row>
@@ -3603,6 +3639,7 @@
         <v>101</v>
       </c>
       <c r="E18" s="80">
+        <f t="shared" ref="E18" si="2">E14-E17</f>
         <v>0</v>
       </c>
     </row>
@@ -3616,6 +3653,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="82">
+        <f t="shared" ref="E19" si="3">IF(ISERROR(E18/E14),0,E18/E14)</f>
         <v>0</v>
       </c>
     </row>
@@ -3629,6 +3667,7 @@
         <v>105</v>
       </c>
       <c r="E20" s="80">
+        <f t="shared" ref="E20" si="4">SUM(E21:E24)</f>
         <v>0</v>
       </c>
     </row>
@@ -3686,6 +3725,7 @@
         <v>115</v>
       </c>
       <c r="E25" s="80">
+        <f t="shared" ref="E25" si="5">SUM(E26:E29)</f>
         <v>0</v>
       </c>
     </row>
@@ -3753,7 +3793,9 @@
       <c r="D31" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="67"/>
@@ -3764,7 +3806,9 @@
       <c r="D32" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="62"/>
@@ -3776,6 +3820,7 @@
         <v>93</v>
       </c>
       <c r="E33" s="33">
+        <f t="shared" ref="E33" si="6">E31-E32</f>
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +3833,9 @@
       <c r="D34" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="62"/>
@@ -3799,7 +3846,9 @@
       <c r="D35" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
@@ -3811,6 +3860,7 @@
         <v>99</v>
       </c>
       <c r="E36" s="33">
+        <f t="shared" ref="E36" si="7">E34-E35</f>
         <v>0</v>
       </c>
     </row>
@@ -3824,6 +3874,7 @@
         <v>101</v>
       </c>
       <c r="E37" s="80">
+        <f t="shared" ref="E37" si="8">E33-E36</f>
         <v>0</v>
       </c>
     </row>
@@ -3837,6 +3888,7 @@
         <v>103</v>
       </c>
       <c r="E38" s="82">
+        <f t="shared" ref="E38" si="9">IF(ISERROR(E37/E33),0,E37/E33)</f>
         <v>0</v>
       </c>
     </row>
@@ -3850,6 +3902,7 @@
         <v>105</v>
       </c>
       <c r="E39" s="80">
+        <f t="shared" ref="E39" si="10">SUM(E40:E43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3907,6 +3960,7 @@
         <v>115</v>
       </c>
       <c r="E44" s="80">
+        <f t="shared" ref="E44" si="11">SUM(E45:E48)</f>
         <v>0</v>
       </c>
     </row>

--- a/Forms/pfm03.xlsx
+++ b/Forms/pfm03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72561AB-AD35-4A1A-9A6D-02515B0341EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60541D4F-8DD5-4D59-9070-977867922121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="694" firstSheet="1" activeTab="6" xr2:uid="{FB711666-3FA6-4078-B961-28961897D9BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="694" xr2:uid="{FB711666-3FA6-4078-B961-28961897D9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Workdone GAP" sheetId="4" r:id="rId4"/>
     <sheet name="Revenue GAP" sheetId="5" r:id="rId5"/>
     <sheet name="Cashin GAP" sheetId="6" r:id="rId6"/>
-    <sheet name="Uninvoiced workdone GAP" sheetId="7" r:id="rId7"/>
+    <sheet name="Uninvoiced workdone GAP" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1290,11 +1290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B638925-83C9-4C0D-BD63-9C29C17F3C04}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18:E19"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3435,7 +3435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB97F4-EA3D-401A-91B5-74A4CD36CB1A}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
